--- a/AnacondaProjects/MachineLearning_Handbook/Titanic/Compare -OneGood.xlsx
+++ b/AnacondaProjects/MachineLearning_Handbook/Titanic/Compare -OneGood.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MachineLearning\AnacondaProjects\MachineLearning\Titanic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MachineLearning\AnacondaProjects\MachineLearning_Handbook\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18C1BA3C-F14E-4EBB-AEB7-E1EF0D865E22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submission_new_0208" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">submission_new_0208!$A$1:$E$419</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -42,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,11 +178,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -525,9 +521,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -848,12 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A419"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>892</v>
       </c>
@@ -888,7 +882,7 @@
       <c r="C2">
         <v>892</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="str">
@@ -906,7 +900,7 @@
       <c r="C3">
         <v>893</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
@@ -914,7 +908,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>894</v>
       </c>
@@ -924,7 +918,7 @@
       <c r="C4">
         <v>894</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="str">
@@ -932,7 +926,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>895</v>
       </c>
@@ -942,7 +936,7 @@
       <c r="C5">
         <v>895</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="str">
@@ -960,7 +954,7 @@
       <c r="C6">
         <v>896</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
@@ -978,12 +972,12 @@
       <c r="C7">
         <v>897</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,12 +990,12 @@
       <c r="C8">
         <v>898</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,15 +1008,15 @@
       <c r="C9">
         <v>899</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1032,7 +1026,7 @@
       <c r="C10">
         <v>900</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
@@ -1040,7 +1034,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>901</v>
       </c>
@@ -1050,7 +1044,7 @@
       <c r="C11">
         <v>901</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="str">
@@ -1058,7 +1052,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>902</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="C12">
         <v>902</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="str">
@@ -1076,7 +1070,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>903</v>
       </c>
@@ -1086,7 +1080,7 @@
       <c r="C13">
         <v>903</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="str">
@@ -1094,7 +1088,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>904</v>
       </c>
@@ -1104,7 +1098,7 @@
       <c r="C14">
         <v>904</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
@@ -1112,7 +1106,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>905</v>
       </c>
@@ -1122,7 +1116,7 @@
       <c r="C15">
         <v>905</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="str">
@@ -1130,7 +1124,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>906</v>
       </c>
@@ -1140,7 +1134,7 @@
       <c r="C16">
         <v>906</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="str">
@@ -1148,7 +1142,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>907</v>
       </c>
@@ -1158,7 +1152,7 @@
       <c r="C17">
         <v>907</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="str">
@@ -1166,7 +1160,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>908</v>
       </c>
@@ -1176,7 +1170,7 @@
       <c r="C18">
         <v>908</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="str">
@@ -1184,7 +1178,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>909</v>
       </c>
@@ -1194,7 +1188,7 @@
       <c r="C19">
         <v>909</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="str">
@@ -1202,7 +1196,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>910</v>
       </c>
@@ -1212,7 +1206,7 @@
       <c r="C20">
         <v>910</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="str">
@@ -1220,7 +1214,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>911</v>
       </c>
@@ -1230,7 +1224,7 @@
       <c r="C21">
         <v>911</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="str">
@@ -1238,7 +1232,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>912</v>
       </c>
@@ -1248,7 +1242,7 @@
       <c r="C22">
         <v>912</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="str">
@@ -1256,7 +1250,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>913</v>
       </c>
@@ -1266,15 +1260,15 @@
       <c r="C23">
         <v>913</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>914</v>
       </c>
@@ -1284,7 +1278,7 @@
       <c r="C24">
         <v>914</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="str">
@@ -1302,15 +1296,15 @@
       <c r="C25">
         <v>915</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>916</v>
       </c>
@@ -1320,7 +1314,7 @@
       <c r="C26">
         <v>916</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="str">
@@ -1328,7 +1322,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>917</v>
       </c>
@@ -1338,7 +1332,7 @@
       <c r="C27">
         <v>917</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="str">
@@ -1346,7 +1340,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>918</v>
       </c>
@@ -1356,7 +1350,7 @@
       <c r="C28">
         <v>918</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="str">
@@ -1364,7 +1358,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>919</v>
       </c>
@@ -1374,7 +1368,7 @@
       <c r="C29">
         <v>919</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="str">
@@ -1382,7 +1376,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>920</v>
       </c>
@@ -1392,7 +1386,7 @@
       <c r="C30">
         <v>920</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="str">
@@ -1400,7 +1394,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>921</v>
       </c>
@@ -1410,7 +1404,7 @@
       <c r="C31">
         <v>921</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="str">
@@ -1418,7 +1412,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>922</v>
       </c>
@@ -1428,7 +1422,7 @@
       <c r="C32">
         <v>922</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="str">
@@ -1436,7 +1430,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>923</v>
       </c>
@@ -1446,7 +1440,7 @@
       <c r="C33">
         <v>923</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="str">
@@ -1454,7 +1448,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>924</v>
       </c>
@@ -1464,7 +1458,7 @@
       <c r="C34">
         <v>924</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="str">
@@ -1472,7 +1466,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>925</v>
       </c>
@@ -1482,7 +1476,7 @@
       <c r="C35">
         <v>925</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="str">
@@ -1500,15 +1494,15 @@
       <c r="C36">
         <v>926</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>927</v>
       </c>
@@ -1518,7 +1512,7 @@
       <c r="C37">
         <v>927</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="str">
@@ -1526,7 +1520,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>928</v>
       </c>
@@ -1536,12 +1530,12 @@
       <c r="C38">
         <v>928</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,7 +1548,7 @@
       <c r="C39">
         <v>929</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="str">
@@ -1572,12 +1566,12 @@
       <c r="C40">
         <v>930</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,12 +1584,12 @@
       <c r="C41">
         <v>931</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,15 +1602,15 @@
       <c r="C42">
         <v>932</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>933</v>
       </c>
@@ -1626,7 +1620,7 @@
       <c r="C43">
         <v>933</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="str">
@@ -1634,7 +1628,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>934</v>
       </c>
@@ -1644,7 +1638,7 @@
       <c r="C44">
         <v>934</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="str">
@@ -1662,15 +1656,15 @@
       <c r="C45">
         <v>935</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>936</v>
       </c>
@@ -1680,7 +1674,7 @@
       <c r="C46">
         <v>936</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="str">
@@ -1688,7 +1682,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>937</v>
       </c>
@@ -1698,7 +1692,7 @@
       <c r="C47">
         <v>937</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="str">
@@ -1716,15 +1710,15 @@
       <c r="C48">
         <v>938</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>939</v>
       </c>
@@ -1734,7 +1728,7 @@
       <c r="C49">
         <v>939</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="str">
@@ -1742,7 +1736,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>940</v>
       </c>
@@ -1752,7 +1746,7 @@
       <c r="C50">
         <v>940</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="str">
@@ -1760,7 +1754,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>941</v>
       </c>
@@ -1770,7 +1764,7 @@
       <c r="C51">
         <v>941</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="str">
@@ -1778,7 +1772,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>942</v>
       </c>
@@ -1788,7 +1782,7 @@
       <c r="C52">
         <v>942</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="str">
@@ -1796,7 +1790,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>943</v>
       </c>
@@ -1806,7 +1800,7 @@
       <c r="C53">
         <v>943</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="str">
@@ -1814,7 +1808,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>944</v>
       </c>
@@ -1824,7 +1818,7 @@
       <c r="C54">
         <v>944</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="str">
@@ -1832,7 +1826,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>945</v>
       </c>
@@ -1842,7 +1836,7 @@
       <c r="C55">
         <v>945</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="str">
@@ -1850,7 +1844,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>946</v>
       </c>
@@ -1860,7 +1854,7 @@
       <c r="C56">
         <v>946</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="str">
@@ -1868,7 +1862,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>947</v>
       </c>
@@ -1878,7 +1872,7 @@
       <c r="C57">
         <v>947</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="str">
@@ -1886,7 +1880,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>948</v>
       </c>
@@ -1896,7 +1890,7 @@
       <c r="C58">
         <v>948</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="str">
@@ -1914,15 +1908,15 @@
       <c r="C59">
         <v>949</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>950</v>
       </c>
@@ -1932,7 +1926,7 @@
       <c r="C60">
         <v>950</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="str">
@@ -1940,7 +1934,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>951</v>
       </c>
@@ -1950,7 +1944,7 @@
       <c r="C61">
         <v>951</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="str">
@@ -1958,7 +1952,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>952</v>
       </c>
@@ -1968,7 +1962,7 @@
       <c r="C62">
         <v>952</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="str">
@@ -1976,7 +1970,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>953</v>
       </c>
@@ -1986,7 +1980,7 @@
       <c r="C63">
         <v>953</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="str">
@@ -1994,7 +1988,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>954</v>
       </c>
@@ -2004,7 +1998,7 @@
       <c r="C64">
         <v>954</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="str">
@@ -2012,7 +2006,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>955</v>
       </c>
@@ -2022,7 +2016,7 @@
       <c r="C65">
         <v>955</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="str">
@@ -2030,7 +2024,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>956</v>
       </c>
@@ -2040,7 +2034,7 @@
       <c r="C66">
         <v>956</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="str">
@@ -2058,12 +2052,12 @@
       <c r="C67">
         <v>957</v>
       </c>
-      <c r="D67" s="1">
-        <v>0</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(B67=D67,"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,15 +2070,15 @@
       <c r="C68">
         <v>958</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>959</v>
       </c>
@@ -2094,7 +2088,7 @@
       <c r="C69">
         <v>959</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="str">
@@ -2112,15 +2106,15 @@
       <c r="C70">
         <v>960</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>961</v>
       </c>
@@ -2130,7 +2124,7 @@
       <c r="C71">
         <v>961</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="str">
@@ -2138,7 +2132,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>962</v>
       </c>
@@ -2148,7 +2142,7 @@
       <c r="C72">
         <v>962</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="str">
@@ -2156,7 +2150,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>963</v>
       </c>
@@ -2166,7 +2160,7 @@
       <c r="C73">
         <v>963</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="str">
@@ -2184,7 +2178,7 @@
       <c r="C74">
         <v>964</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="str">
@@ -2192,7 +2186,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>965</v>
       </c>
@@ -2202,7 +2196,7 @@
       <c r="C75">
         <v>965</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="str">
@@ -2210,7 +2204,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>966</v>
       </c>
@@ -2220,7 +2214,7 @@
       <c r="C76">
         <v>966</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="str">
@@ -2228,7 +2222,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>967</v>
       </c>
@@ -2238,7 +2232,7 @@
       <c r="C77">
         <v>967</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="str">
@@ -2246,7 +2240,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>968</v>
       </c>
@@ -2256,7 +2250,7 @@
       <c r="C78">
         <v>968</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="str">
@@ -2264,7 +2258,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>969</v>
       </c>
@@ -2274,7 +2268,7 @@
       <c r="C79">
         <v>969</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="str">
@@ -2282,7 +2276,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>970</v>
       </c>
@@ -2292,7 +2286,7 @@
       <c r="C80">
         <v>970</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="str">
@@ -2310,12 +2304,12 @@
       <c r="C81">
         <v>971</v>
       </c>
-      <c r="D81" s="1">
-        <v>0</v>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,15 +2322,15 @@
       <c r="C82">
         <v>972</v>
       </c>
-      <c r="D82" s="1">
-        <v>0</v>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>973</v>
       </c>
@@ -2346,7 +2340,7 @@
       <c r="C83">
         <v>973</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="str">
@@ -2354,7 +2348,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>974</v>
       </c>
@@ -2364,7 +2358,7 @@
       <c r="C84">
         <v>974</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="str">
@@ -2372,7 +2366,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>975</v>
       </c>
@@ -2382,7 +2376,7 @@
       <c r="C85">
         <v>975</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="str">
@@ -2390,7 +2384,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>976</v>
       </c>
@@ -2400,7 +2394,7 @@
       <c r="C86">
         <v>976</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="str">
@@ -2408,7 +2402,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>977</v>
       </c>
@@ -2418,7 +2412,7 @@
       <c r="C87">
         <v>977</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="str">
@@ -2436,15 +2430,15 @@
       <c r="C88">
         <v>978</v>
       </c>
-      <c r="D88" s="1">
-        <v>0</v>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>979</v>
       </c>
@@ -2454,12 +2448,12 @@
       <c r="C89">
         <v>979</v>
       </c>
-      <c r="D89" s="1">
-        <v>1</v>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,15 +2466,15 @@
       <c r="C90">
         <v>980</v>
       </c>
-      <c r="D90" s="1">
-        <v>0</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>981</v>
       </c>
@@ -2490,7 +2484,7 @@
       <c r="C91">
         <v>981</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="str">
@@ -2508,7 +2502,7 @@
       <c r="C92">
         <v>982</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="str">
@@ -2516,7 +2510,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>983</v>
       </c>
@@ -2526,7 +2520,7 @@
       <c r="C93">
         <v>983</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="str">
@@ -2534,7 +2528,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>984</v>
       </c>
@@ -2544,7 +2538,7 @@
       <c r="C94">
         <v>984</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="str">
@@ -2552,7 +2546,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>985</v>
       </c>
@@ -2562,7 +2556,7 @@
       <c r="C95">
         <v>985</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="str">
@@ -2570,7 +2564,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>986</v>
       </c>
@@ -2580,7 +2574,7 @@
       <c r="C96">
         <v>986</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="str">
@@ -2598,15 +2592,15 @@
       <c r="C97">
         <v>987</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>988</v>
       </c>
@@ -2616,7 +2610,7 @@
       <c r="C98">
         <v>988</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="str">
@@ -2624,7 +2618,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>989</v>
       </c>
@@ -2634,7 +2628,7 @@
       <c r="C99">
         <v>989</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="str">
@@ -2652,15 +2646,15 @@
       <c r="C100">
         <v>990</v>
       </c>
-      <c r="D100" s="1">
-        <v>0</v>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>991</v>
       </c>
@@ -2670,7 +2664,7 @@
       <c r="C101">
         <v>991</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="str">
@@ -2678,7 +2672,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>992</v>
       </c>
@@ -2688,7 +2682,7 @@
       <c r="C102">
         <v>992</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="str">
@@ -2696,7 +2690,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>993</v>
       </c>
@@ -2706,7 +2700,7 @@
       <c r="C103">
         <v>993</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="str">
@@ -2714,7 +2708,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>994</v>
       </c>
@@ -2724,7 +2718,7 @@
       <c r="C104">
         <v>994</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="str">
@@ -2742,15 +2736,15 @@
       <c r="C105">
         <v>995</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>996</v>
       </c>
@@ -2760,7 +2754,7 @@
       <c r="C106">
         <v>996</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="str">
@@ -2768,7 +2762,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>997</v>
       </c>
@@ -2778,7 +2772,7 @@
       <c r="C107">
         <v>997</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="str">
@@ -2796,12 +2790,12 @@
       <c r="C108">
         <v>998</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
+      <c r="D108">
+        <v>0</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,15 +2808,15 @@
       <c r="C109">
         <v>999</v>
       </c>
-      <c r="D109" s="1">
-        <v>1</v>
+      <c r="D109">
+        <v>0</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1000</v>
       </c>
@@ -2832,7 +2826,7 @@
       <c r="C110">
         <v>1000</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="str">
@@ -2840,7 +2834,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1001</v>
       </c>
@@ -2850,7 +2844,7 @@
       <c r="C111">
         <v>1001</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="str">
@@ -2858,7 +2852,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1002</v>
       </c>
@@ -2868,7 +2862,7 @@
       <c r="C112">
         <v>1002</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="str">
@@ -2876,7 +2870,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1003</v>
       </c>
@@ -2886,7 +2880,7 @@
       <c r="C113">
         <v>1003</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" t="str">
@@ -2904,12 +2898,12 @@
       <c r="C114">
         <v>1004</v>
       </c>
-      <c r="D114" s="1">
-        <v>0</v>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,12 +2916,12 @@
       <c r="C115">
         <v>1005</v>
       </c>
-      <c r="D115" s="1">
-        <v>0</v>
+      <c r="D115">
+        <v>1</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,15 +2934,15 @@
       <c r="C116">
         <v>1006</v>
       </c>
-      <c r="D116" s="1">
-        <v>0</v>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1007</v>
       </c>
@@ -2958,7 +2952,7 @@
       <c r="C117">
         <v>1007</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="str">
@@ -2966,7 +2960,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1008</v>
       </c>
@@ -2976,7 +2970,7 @@
       <c r="C118">
         <v>1008</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="str">
@@ -2984,7 +2978,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1009</v>
       </c>
@@ -2994,7 +2988,7 @@
       <c r="C119">
         <v>1009</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="str">
@@ -3002,7 +2996,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1010</v>
       </c>
@@ -3012,7 +3006,7 @@
       <c r="C120">
         <v>1010</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="str">
@@ -3030,15 +3024,15 @@
       <c r="C121">
         <v>1011</v>
       </c>
-      <c r="D121" s="1">
-        <v>0</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1012</v>
       </c>
@@ -3048,7 +3042,7 @@
       <c r="C122">
         <v>1012</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="str">
@@ -3056,7 +3050,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1013</v>
       </c>
@@ -3066,7 +3060,7 @@
       <c r="C123">
         <v>1013</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="str">
@@ -3074,7 +3068,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1014</v>
       </c>
@@ -3084,7 +3078,7 @@
       <c r="C124">
         <v>1014</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="str">
@@ -3092,7 +3086,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1015</v>
       </c>
@@ -3102,7 +3096,7 @@
       <c r="C125">
         <v>1015</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="str">
@@ -3120,15 +3114,15 @@
       <c r="C126">
         <v>1016</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
+      <c r="D126">
+        <v>0</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1017</v>
       </c>
@@ -3138,7 +3132,7 @@
       <c r="C127">
         <v>1017</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="str">
@@ -3146,7 +3140,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1018</v>
       </c>
@@ -3156,7 +3150,7 @@
       <c r="C128">
         <v>1018</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="str">
@@ -3164,7 +3158,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1019</v>
       </c>
@@ -3174,7 +3168,7 @@
       <c r="C129">
         <v>1019</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="str">
@@ -3182,7 +3176,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1020</v>
       </c>
@@ -3192,7 +3186,7 @@
       <c r="C130">
         <v>1020</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="str">
@@ -3200,7 +3194,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1021</v>
       </c>
@@ -3210,7 +3204,7 @@
       <c r="C131">
         <v>1021</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="str">
@@ -3218,7 +3212,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1022</v>
       </c>
@@ -3228,7 +3222,7 @@
       <c r="C132">
         <v>1022</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="str">
@@ -3246,15 +3240,15 @@
       <c r="C133">
         <v>1023</v>
       </c>
-      <c r="D133" s="1">
-        <v>1</v>
+      <c r="D133">
+        <v>0</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1024</v>
       </c>
@@ -3264,7 +3258,7 @@
       <c r="C134">
         <v>1024</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="str">
@@ -3272,7 +3266,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1025</v>
       </c>
@@ -3282,7 +3276,7 @@
       <c r="C135">
         <v>1025</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="str">
@@ -3290,7 +3284,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1026</v>
       </c>
@@ -3300,7 +3294,7 @@
       <c r="C136">
         <v>1026</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="str">
@@ -3308,7 +3302,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1027</v>
       </c>
@@ -3318,7 +3312,7 @@
       <c r="C137">
         <v>1027</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="str">
@@ -3326,7 +3320,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1028</v>
       </c>
@@ -3336,7 +3330,7 @@
       <c r="C138">
         <v>1028</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="str">
@@ -3344,7 +3338,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1029</v>
       </c>
@@ -3354,7 +3348,7 @@
       <c r="C139">
         <v>1029</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="str">
@@ -3362,7 +3356,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1030</v>
       </c>
@@ -3372,15 +3366,15 @@
       <c r="C140">
         <v>1030</v>
       </c>
-      <c r="D140" s="1">
-        <v>1</v>
+      <c r="D140">
+        <v>0</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1031</v>
       </c>
@@ -3390,7 +3384,7 @@
       <c r="C141">
         <v>1031</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="str">
@@ -3398,7 +3392,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1032</v>
       </c>
@@ -3408,7 +3402,7 @@
       <c r="C142">
         <v>1032</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="str">
@@ -3416,7 +3410,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1033</v>
       </c>
@@ -3426,7 +3420,7 @@
       <c r="C143">
         <v>1033</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="str">
@@ -3434,7 +3428,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1034</v>
       </c>
@@ -3444,7 +3438,7 @@
       <c r="C144">
         <v>1034</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="str">
@@ -3452,7 +3446,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1035</v>
       </c>
@@ -3462,7 +3456,7 @@
       <c r="C145">
         <v>1035</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="str">
@@ -3470,7 +3464,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1036</v>
       </c>
@@ -3480,7 +3474,7 @@
       <c r="C146">
         <v>1036</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="str">
@@ -3488,7 +3482,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1037</v>
       </c>
@@ -3498,7 +3492,7 @@
       <c r="C147">
         <v>1037</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="str">
@@ -3506,7 +3500,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1038</v>
       </c>
@@ -3516,7 +3510,7 @@
       <c r="C148">
         <v>1038</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="str">
@@ -3524,7 +3518,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1039</v>
       </c>
@@ -3534,7 +3528,7 @@
       <c r="C149">
         <v>1039</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="str">
@@ -3542,7 +3536,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1040</v>
       </c>
@@ -3552,7 +3546,7 @@
       <c r="C150">
         <v>1040</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="str">
@@ -3560,7 +3554,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1041</v>
       </c>
@@ -3570,7 +3564,7 @@
       <c r="C151">
         <v>1041</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="str">
@@ -3578,7 +3572,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1042</v>
       </c>
@@ -3588,7 +3582,7 @@
       <c r="C152">
         <v>1042</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="str">
@@ -3596,7 +3590,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1043</v>
       </c>
@@ -3606,7 +3600,7 @@
       <c r="C153">
         <v>1043</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="str">
@@ -3614,7 +3608,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1044</v>
       </c>
@@ -3624,7 +3618,7 @@
       <c r="C154">
         <v>1044</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="str">
@@ -3632,7 +3626,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1045</v>
       </c>
@@ -3642,15 +3636,15 @@
       <c r="C155">
         <v>1045</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
+      <c r="D155">
+        <v>1</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1046</v>
       </c>
@@ -3660,7 +3654,7 @@
       <c r="C156">
         <v>1046</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="str">
@@ -3678,15 +3672,15 @@
       <c r="C157">
         <v>1047</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
+      <c r="D157">
+        <v>0</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1048</v>
       </c>
@@ -3696,7 +3690,7 @@
       <c r="C158">
         <v>1048</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="str">
@@ -3704,7 +3698,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1049</v>
       </c>
@@ -3714,7 +3708,7 @@
       <c r="C159">
         <v>1049</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="str">
@@ -3722,7 +3716,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1050</v>
       </c>
@@ -3732,7 +3726,7 @@
       <c r="C160">
         <v>1050</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160">
         <v>0</v>
       </c>
       <c r="E160" t="str">
@@ -3750,15 +3744,15 @@
       <c r="C161">
         <v>1051</v>
       </c>
-      <c r="D161" s="1">
-        <v>0</v>
+      <c r="D161">
+        <v>1</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1052</v>
       </c>
@@ -3768,7 +3762,7 @@
       <c r="C162">
         <v>1052</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="str">
@@ -3776,7 +3770,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1053</v>
       </c>
@@ -3786,7 +3780,7 @@
       <c r="C163">
         <v>1053</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="str">
@@ -3794,7 +3788,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1054</v>
       </c>
@@ -3804,7 +3798,7 @@
       <c r="C164">
         <v>1054</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" t="str">
@@ -3812,7 +3806,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1055</v>
       </c>
@@ -3822,7 +3816,7 @@
       <c r="C165">
         <v>1055</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="str">
@@ -3830,7 +3824,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1056</v>
       </c>
@@ -3840,7 +3834,7 @@
       <c r="C166">
         <v>1056</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="str">
@@ -3848,7 +3842,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1057</v>
       </c>
@@ -3858,7 +3852,7 @@
       <c r="C167">
         <v>1057</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167">
         <v>1</v>
       </c>
       <c r="E167" t="str">
@@ -3866,7 +3860,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1058</v>
       </c>
@@ -3876,7 +3870,7 @@
       <c r="C168">
         <v>1058</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="str">
@@ -3884,7 +3878,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1059</v>
       </c>
@@ -3894,7 +3888,7 @@
       <c r="C169">
         <v>1059</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="str">
@@ -3902,7 +3896,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1060</v>
       </c>
@@ -3912,7 +3906,7 @@
       <c r="C170">
         <v>1060</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="str">
@@ -3920,7 +3914,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1061</v>
       </c>
@@ -3930,15 +3924,15 @@
       <c r="C171">
         <v>1061</v>
       </c>
-      <c r="D171" s="1">
-        <v>1</v>
+      <c r="D171">
+        <v>0</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1062</v>
       </c>
@@ -3948,7 +3942,7 @@
       <c r="C172">
         <v>1062</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="str">
@@ -3956,7 +3950,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1063</v>
       </c>
@@ -3966,7 +3960,7 @@
       <c r="C173">
         <v>1063</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="str">
@@ -3974,7 +3968,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1064</v>
       </c>
@@ -3984,7 +3978,7 @@
       <c r="C174">
         <v>1064</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="str">
@@ -3992,7 +3986,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1065</v>
       </c>
@@ -4002,7 +3996,7 @@
       <c r="C175">
         <v>1065</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="str">
@@ -4010,7 +4004,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1066</v>
       </c>
@@ -4020,7 +4014,7 @@
       <c r="C176">
         <v>1066</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="str">
@@ -4028,7 +4022,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1067</v>
       </c>
@@ -4038,7 +4032,7 @@
       <c r="C177">
         <v>1067</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="str">
@@ -4046,7 +4040,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1068</v>
       </c>
@@ -4056,7 +4050,7 @@
       <c r="C178">
         <v>1068</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="str">
@@ -4074,15 +4068,15 @@
       <c r="C179">
         <v>1069</v>
       </c>
-      <c r="D179" s="1">
-        <v>1</v>
+      <c r="D179">
+        <v>0</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1070</v>
       </c>
@@ -4092,7 +4086,7 @@
       <c r="C180">
         <v>1070</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180">
         <v>1</v>
       </c>
       <c r="E180" t="str">
@@ -4100,7 +4094,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1071</v>
       </c>
@@ -4110,7 +4104,7 @@
       <c r="C181">
         <v>1071</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181">
         <v>1</v>
       </c>
       <c r="E181" t="str">
@@ -4118,7 +4112,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1072</v>
       </c>
@@ -4128,7 +4122,7 @@
       <c r="C182">
         <v>1072</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="str">
@@ -4136,7 +4130,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1073</v>
       </c>
@@ -4146,7 +4140,7 @@
       <c r="C183">
         <v>1073</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="str">
@@ -4154,7 +4148,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1074</v>
       </c>
@@ -4164,7 +4158,7 @@
       <c r="C184">
         <v>1074</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="str">
@@ -4172,7 +4166,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1075</v>
       </c>
@@ -4182,7 +4176,7 @@
       <c r="C185">
         <v>1075</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="str">
@@ -4190,7 +4184,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1076</v>
       </c>
@@ -4200,7 +4194,7 @@
       <c r="C186">
         <v>1076</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="str">
@@ -4208,7 +4202,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1077</v>
       </c>
@@ -4218,7 +4212,7 @@
       <c r="C187">
         <v>1077</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="str">
@@ -4226,7 +4220,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1078</v>
       </c>
@@ -4236,7 +4230,7 @@
       <c r="C188">
         <v>1078</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="str">
@@ -4244,7 +4238,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1079</v>
       </c>
@@ -4254,7 +4248,7 @@
       <c r="C189">
         <v>1079</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="str">
@@ -4262,7 +4256,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1080</v>
       </c>
@@ -4272,7 +4266,7 @@
       <c r="C190">
         <v>1080</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190">
         <v>0</v>
       </c>
       <c r="E190" t="str">
@@ -4280,7 +4274,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1081</v>
       </c>
@@ -4290,7 +4284,7 @@
       <c r="C191">
         <v>1081</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="str">
@@ -4298,7 +4292,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1082</v>
       </c>
@@ -4308,7 +4302,7 @@
       <c r="C192">
         <v>1082</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192">
         <v>0</v>
       </c>
       <c r="E192" t="str">
@@ -4326,12 +4320,12 @@
       <c r="C193">
         <v>1083</v>
       </c>
-      <c r="D193" s="1">
-        <v>1</v>
+      <c r="D193">
+        <v>0</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4344,15 +4338,15 @@
       <c r="C194">
         <v>1084</v>
       </c>
-      <c r="D194" s="1">
-        <v>0</v>
+      <c r="D194">
+        <v>1</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1085</v>
       </c>
@@ -4362,7 +4356,7 @@
       <c r="C195">
         <v>1085</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195">
         <v>0</v>
       </c>
       <c r="E195" t="str">
@@ -4370,7 +4364,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1086</v>
       </c>
@@ -4380,7 +4374,7 @@
       <c r="C196">
         <v>1086</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" t="str">
@@ -4388,7 +4382,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1087</v>
       </c>
@@ -4398,7 +4392,7 @@
       <c r="C197">
         <v>1087</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="str">
@@ -4406,7 +4400,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1088</v>
       </c>
@@ -4416,7 +4410,7 @@
       <c r="C198">
         <v>1088</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198">
         <v>1</v>
       </c>
       <c r="E198" t="str">
@@ -4424,7 +4418,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1089</v>
       </c>
@@ -4434,7 +4428,7 @@
       <c r="C199">
         <v>1089</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199">
         <v>1</v>
       </c>
       <c r="E199" t="str">
@@ -4442,7 +4436,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1090</v>
       </c>
@@ -4452,7 +4446,7 @@
       <c r="C200">
         <v>1090</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="str">
@@ -4460,7 +4454,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1091</v>
       </c>
@@ -4470,7 +4464,7 @@
       <c r="C201">
         <v>1091</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201">
         <v>0</v>
       </c>
       <c r="E201" t="str">
@@ -4478,7 +4472,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1092</v>
       </c>
@@ -4488,7 +4482,7 @@
       <c r="C202">
         <v>1092</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="str">
@@ -4506,15 +4500,15 @@
       <c r="C203">
         <v>1093</v>
       </c>
-      <c r="D203" s="1">
-        <v>0</v>
+      <c r="D203">
+        <v>1</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1094</v>
       </c>
@@ -4524,15 +4518,15 @@
       <c r="C204">
         <v>1094</v>
       </c>
-      <c r="D204" s="1">
-        <v>0</v>
+      <c r="D204">
+        <v>1</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1095</v>
       </c>
@@ -4542,7 +4536,7 @@
       <c r="C205">
         <v>1095</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="str">
@@ -4550,7 +4544,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1096</v>
       </c>
@@ -4560,7 +4554,7 @@
       <c r="C206">
         <v>1096</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="str">
@@ -4578,12 +4572,12 @@
       <c r="C207">
         <v>1097</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
+      <c r="D207">
+        <v>0</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,12 +4590,12 @@
       <c r="C208">
         <v>1098</v>
       </c>
-      <c r="D208" s="1">
-        <v>0</v>
+      <c r="D208">
+        <v>1</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4614,15 +4608,15 @@
       <c r="C209">
         <v>1099</v>
       </c>
-      <c r="D209" s="1">
-        <v>1</v>
+      <c r="D209">
+        <v>0</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1100</v>
       </c>
@@ -4632,7 +4626,7 @@
       <c r="C210">
         <v>1100</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="str">
@@ -4640,7 +4634,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1101</v>
       </c>
@@ -4650,7 +4644,7 @@
       <c r="C211">
         <v>1101</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211">
         <v>0</v>
       </c>
       <c r="E211" t="str">
@@ -4658,7 +4652,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1102</v>
       </c>
@@ -4668,7 +4662,7 @@
       <c r="C212">
         <v>1102</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="str">
@@ -4686,15 +4680,15 @@
       <c r="C213">
         <v>1103</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
+      <c r="D213">
+        <v>0</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1104</v>
       </c>
@@ -4704,7 +4698,7 @@
       <c r="C214">
         <v>1104</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="str">
@@ -4722,15 +4716,15 @@
       <c r="C215">
         <v>1105</v>
       </c>
-      <c r="D215" s="1">
-        <v>0</v>
+      <c r="D215">
+        <v>1</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1106</v>
       </c>
@@ -4740,7 +4734,7 @@
       <c r="C216">
         <v>1106</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="str">
@@ -4748,7 +4742,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1107</v>
       </c>
@@ -4758,7 +4752,7 @@
       <c r="C217">
         <v>1107</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="str">
@@ -4776,15 +4770,15 @@
       <c r="C218">
         <v>1108</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
+      <c r="D218">
+        <v>1</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1109</v>
       </c>
@@ -4794,7 +4788,7 @@
       <c r="C219">
         <v>1109</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="str">
@@ -4802,7 +4796,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1110</v>
       </c>
@@ -4812,7 +4806,7 @@
       <c r="C220">
         <v>1110</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220">
         <v>1</v>
       </c>
       <c r="E220" t="str">
@@ -4820,7 +4814,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1111</v>
       </c>
@@ -4830,7 +4824,7 @@
       <c r="C221">
         <v>1111</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221">
         <v>0</v>
       </c>
       <c r="E221" t="str">
@@ -4838,7 +4832,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1112</v>
       </c>
@@ -4848,7 +4842,7 @@
       <c r="C222">
         <v>1112</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222">
         <v>1</v>
       </c>
       <c r="E222" t="str">
@@ -4856,7 +4850,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1113</v>
       </c>
@@ -4866,7 +4860,7 @@
       <c r="C223">
         <v>1113</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223">
         <v>0</v>
       </c>
       <c r="E223" t="str">
@@ -4874,7 +4868,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1114</v>
       </c>
@@ -4884,7 +4878,7 @@
       <c r="C224">
         <v>1114</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224">
         <v>1</v>
       </c>
       <c r="E224" t="str">
@@ -4902,15 +4896,15 @@
       <c r="C225">
         <v>1115</v>
       </c>
-      <c r="D225" s="1">
-        <v>1</v>
+      <c r="D225">
+        <v>0</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1116</v>
       </c>
@@ -4920,7 +4914,7 @@
       <c r="C226">
         <v>1116</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="str">
@@ -4928,7 +4922,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1117</v>
       </c>
@@ -4938,7 +4932,7 @@
       <c r="C227">
         <v>1117</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227">
         <v>1</v>
       </c>
       <c r="E227" t="str">
@@ -4956,12 +4950,12 @@
       <c r="C228">
         <v>1118</v>
       </c>
-      <c r="D228" s="1">
-        <v>1</v>
+      <c r="D228">
+        <v>0</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,15 +4968,15 @@
       <c r="C229">
         <v>1119</v>
       </c>
-      <c r="D229" s="1">
-        <v>0</v>
+      <c r="D229">
+        <v>1</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1120</v>
       </c>
@@ -4992,7 +4986,7 @@
       <c r="C230">
         <v>1120</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230">
         <v>0</v>
       </c>
       <c r="E230" t="str">
@@ -5000,7 +4994,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1121</v>
       </c>
@@ -5010,7 +5004,7 @@
       <c r="C231">
         <v>1121</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231">
         <v>0</v>
       </c>
       <c r="E231" t="str">
@@ -5018,7 +5012,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1122</v>
       </c>
@@ -5028,7 +5022,7 @@
       <c r="C232">
         <v>1122</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232">
         <v>0</v>
       </c>
       <c r="E232" t="str">
@@ -5036,7 +5030,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1123</v>
       </c>
@@ -5046,7 +5040,7 @@
       <c r="C233">
         <v>1123</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="str">
@@ -5054,7 +5048,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1124</v>
       </c>
@@ -5064,7 +5058,7 @@
       <c r="C234">
         <v>1124</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="str">
@@ -5072,7 +5066,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1125</v>
       </c>
@@ -5082,7 +5076,7 @@
       <c r="C235">
         <v>1125</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235">
         <v>0</v>
       </c>
       <c r="E235" t="str">
@@ -5090,7 +5084,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1126</v>
       </c>
@@ -5100,7 +5094,7 @@
       <c r="C236">
         <v>1126</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236">
         <v>0</v>
       </c>
       <c r="E236" t="str">
@@ -5108,7 +5102,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1127</v>
       </c>
@@ -5118,7 +5112,7 @@
       <c r="C237">
         <v>1127</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237">
         <v>0</v>
       </c>
       <c r="E237" t="str">
@@ -5136,7 +5130,7 @@
       <c r="C238">
         <v>1128</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="str">
@@ -5144,7 +5138,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1129</v>
       </c>
@@ -5154,7 +5148,7 @@
       <c r="C239">
         <v>1129</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239">
         <v>0</v>
       </c>
       <c r="E239" t="str">
@@ -5172,15 +5166,15 @@
       <c r="C240">
         <v>1130</v>
       </c>
-      <c r="D240" s="1">
-        <v>0</v>
+      <c r="D240">
+        <v>1</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1131</v>
       </c>
@@ -5190,7 +5184,7 @@
       <c r="C241">
         <v>1131</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241">
         <v>1</v>
       </c>
       <c r="E241" t="str">
@@ -5198,7 +5192,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1132</v>
       </c>
@@ -5208,7 +5202,7 @@
       <c r="C242">
         <v>1132</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="str">
@@ -5216,7 +5210,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1133</v>
       </c>
@@ -5226,7 +5220,7 @@
       <c r="C243">
         <v>1133</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="str">
@@ -5244,12 +5238,12 @@
       <c r="C244">
         <v>1134</v>
       </c>
-      <c r="D244" s="1">
-        <v>1</v>
+      <c r="D244">
+        <v>0</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,12 +5256,12 @@
       <c r="C245">
         <v>1135</v>
       </c>
-      <c r="D245" s="1">
-        <v>1</v>
+      <c r="D245">
+        <v>0</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,7 +5274,7 @@
       <c r="C246">
         <v>1136</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246">
         <v>0</v>
       </c>
       <c r="E246" t="str">
@@ -5288,7 +5282,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1137</v>
       </c>
@@ -5298,7 +5292,7 @@
       <c r="C247">
         <v>1137</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247">
         <v>0</v>
       </c>
       <c r="E247" t="str">
@@ -5316,15 +5310,15 @@
       <c r="C248">
         <v>1138</v>
       </c>
-      <c r="D248" s="1">
-        <v>0</v>
+      <c r="D248">
+        <v>1</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1139</v>
       </c>
@@ -5334,7 +5328,7 @@
       <c r="C249">
         <v>1139</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249">
         <v>0</v>
       </c>
       <c r="E249" t="str">
@@ -5342,7 +5336,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1140</v>
       </c>
@@ -5352,7 +5346,7 @@
       <c r="C250">
         <v>1140</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="str">
@@ -5370,7 +5364,7 @@
       <c r="C251">
         <v>1141</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251">
         <v>0</v>
       </c>
       <c r="E251" t="str">
@@ -5378,7 +5372,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1142</v>
       </c>
@@ -5388,7 +5382,7 @@
       <c r="C252">
         <v>1142</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="str">
@@ -5406,15 +5400,15 @@
       <c r="C253">
         <v>1143</v>
       </c>
-      <c r="D253" s="1">
-        <v>1</v>
+      <c r="D253">
+        <v>0</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1144</v>
       </c>
@@ -5424,7 +5418,7 @@
       <c r="C254">
         <v>1144</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254">
         <v>0</v>
       </c>
       <c r="E254" t="str">
@@ -5432,7 +5426,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1145</v>
       </c>
@@ -5442,7 +5436,7 @@
       <c r="C255">
         <v>1145</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255">
         <v>0</v>
       </c>
       <c r="E255" t="str">
@@ -5450,7 +5444,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1146</v>
       </c>
@@ -5460,7 +5454,7 @@
       <c r="C256">
         <v>1146</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="str">
@@ -5468,7 +5462,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1147</v>
       </c>
@@ -5478,7 +5472,7 @@
       <c r="C257">
         <v>1147</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257">
         <v>0</v>
       </c>
       <c r="E257" t="str">
@@ -5486,7 +5480,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1148</v>
       </c>
@@ -5496,7 +5490,7 @@
       <c r="C258">
         <v>1148</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258">
         <v>0</v>
       </c>
       <c r="E258" t="str">
@@ -5504,7 +5498,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1149</v>
       </c>
@@ -5514,7 +5508,7 @@
       <c r="C259">
         <v>1149</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259">
         <v>0</v>
       </c>
       <c r="E259" t="str">
@@ -5522,7 +5516,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1150</v>
       </c>
@@ -5532,7 +5526,7 @@
       <c r="C260">
         <v>1150</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="str">
@@ -5550,12 +5544,12 @@
       <c r="C261">
         <v>1151</v>
       </c>
-      <c r="D261" s="1">
-        <v>1</v>
+      <c r="D261">
+        <v>0</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5568,15 +5562,15 @@
       <c r="C262">
         <v>1152</v>
       </c>
-      <c r="D262" s="1">
-        <v>1</v>
+      <c r="D262">
+        <v>0</v>
       </c>
       <c r="E262" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -5586,7 +5580,7 @@
       <c r="C263">
         <v>1153</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263">
         <v>0</v>
       </c>
       <c r="E263" t="str">
@@ -5594,7 +5588,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1154</v>
       </c>
@@ -5604,7 +5598,7 @@
       <c r="C264">
         <v>1154</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="str">
@@ -5622,12 +5616,12 @@
       <c r="C265">
         <v>1155</v>
       </c>
-      <c r="D265" s="1">
-        <v>0</v>
+      <c r="D265">
+        <v>1</v>
       </c>
       <c r="E265" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,15 +5634,15 @@
       <c r="C266">
         <v>1156</v>
       </c>
-      <c r="D266" s="1">
-        <v>1</v>
+      <c r="D266">
+        <v>0</v>
       </c>
       <c r="E266" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1157</v>
       </c>
@@ -5658,7 +5652,7 @@
       <c r="C267">
         <v>1157</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267">
         <v>0</v>
       </c>
       <c r="E267" t="str">
@@ -5666,7 +5660,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1158</v>
       </c>
@@ -5676,7 +5670,7 @@
       <c r="C268">
         <v>1158</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268">
         <v>0</v>
       </c>
       <c r="E268" t="str">
@@ -5684,7 +5678,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1159</v>
       </c>
@@ -5694,7 +5688,7 @@
       <c r="C269">
         <v>1159</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269">
         <v>0</v>
       </c>
       <c r="E269" t="str">
@@ -5702,7 +5696,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1160</v>
       </c>
@@ -5712,15 +5706,15 @@
       <c r="C270">
         <v>1160</v>
       </c>
-      <c r="D270" s="1">
-        <v>1</v>
+      <c r="D270">
+        <v>0</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1161</v>
       </c>
@@ -5730,7 +5724,7 @@
       <c r="C271">
         <v>1161</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271">
         <v>0</v>
       </c>
       <c r="E271" t="str">
@@ -5738,7 +5732,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1162</v>
       </c>
@@ -5748,7 +5742,7 @@
       <c r="C272">
         <v>1162</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272">
         <v>0</v>
       </c>
       <c r="E272" t="str">
@@ -5756,7 +5750,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1163</v>
       </c>
@@ -5766,7 +5760,7 @@
       <c r="C273">
         <v>1163</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273">
         <v>0</v>
       </c>
       <c r="E273" t="str">
@@ -5774,7 +5768,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1164</v>
       </c>
@@ -5784,7 +5778,7 @@
       <c r="C274">
         <v>1164</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274">
         <v>1</v>
       </c>
       <c r="E274" t="str">
@@ -5802,15 +5796,15 @@
       <c r="C275">
         <v>1165</v>
       </c>
-      <c r="D275" s="1">
-        <v>0</v>
+      <c r="D275">
+        <v>1</v>
       </c>
       <c r="E275" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1166</v>
       </c>
@@ -5820,7 +5814,7 @@
       <c r="C276">
         <v>1166</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276">
         <v>0</v>
       </c>
       <c r="E276" t="str">
@@ -5828,7 +5822,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1167</v>
       </c>
@@ -5838,7 +5832,7 @@
       <c r="C277">
         <v>1167</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277">
         <v>1</v>
       </c>
       <c r="E277" t="str">
@@ -5846,7 +5840,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1168</v>
       </c>
@@ -5856,7 +5850,7 @@
       <c r="C278">
         <v>1168</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278">
         <v>0</v>
       </c>
       <c r="E278" t="str">
@@ -5864,7 +5858,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1169</v>
       </c>
@@ -5874,7 +5868,7 @@
       <c r="C279">
         <v>1169</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279">
         <v>0</v>
       </c>
       <c r="E279" t="str">
@@ -5882,7 +5876,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1170</v>
       </c>
@@ -5892,7 +5886,7 @@
       <c r="C280">
         <v>1170</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280">
         <v>0</v>
       </c>
       <c r="E280" t="str">
@@ -5910,12 +5904,12 @@
       <c r="C281">
         <v>1171</v>
       </c>
-      <c r="D281" s="1">
-        <v>1</v>
+      <c r="D281">
+        <v>0</v>
       </c>
       <c r="E281" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5928,7 +5922,7 @@
       <c r="C282">
         <v>1172</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282">
         <v>0</v>
       </c>
       <c r="E282" t="str">
@@ -5946,12 +5940,12 @@
       <c r="C283">
         <v>1173</v>
       </c>
-      <c r="D283" s="1">
-        <v>0</v>
+      <c r="D283">
+        <v>1</v>
       </c>
       <c r="E283" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5964,15 +5958,15 @@
       <c r="C284">
         <v>1174</v>
       </c>
-      <c r="D284" s="1">
-        <v>0</v>
+      <c r="D284">
+        <v>1</v>
       </c>
       <c r="E284" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1175</v>
       </c>
@@ -5982,7 +5976,7 @@
       <c r="C285">
         <v>1175</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285">
         <v>1</v>
       </c>
       <c r="E285" t="str">
@@ -6000,15 +5994,15 @@
       <c r="C286">
         <v>1176</v>
       </c>
-      <c r="D286" s="1">
-        <v>0</v>
+      <c r="D286">
+        <v>1</v>
       </c>
       <c r="E286" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1177</v>
       </c>
@@ -6018,7 +6012,7 @@
       <c r="C287">
         <v>1177</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287">
         <v>0</v>
       </c>
       <c r="E287" t="str">
@@ -6026,7 +6020,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1178</v>
       </c>
@@ -6036,7 +6030,7 @@
       <c r="C288">
         <v>1178</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288">
         <v>0</v>
       </c>
       <c r="E288" t="str">
@@ -6044,7 +6038,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1179</v>
       </c>
@@ -6054,15 +6048,15 @@
       <c r="C289">
         <v>1179</v>
       </c>
-      <c r="D289" s="1">
-        <v>1</v>
+      <c r="D289">
+        <v>0</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1180</v>
       </c>
@@ -6072,7 +6066,7 @@
       <c r="C290">
         <v>1180</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290">
         <v>0</v>
       </c>
       <c r="E290" t="str">
@@ -6080,7 +6074,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1181</v>
       </c>
@@ -6090,7 +6084,7 @@
       <c r="C291">
         <v>1181</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291">
         <v>0</v>
       </c>
       <c r="E291" t="str">
@@ -6108,15 +6102,15 @@
       <c r="C292">
         <v>1182</v>
       </c>
-      <c r="D292" s="1">
-        <v>1</v>
+      <c r="D292">
+        <v>0</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1183</v>
       </c>
@@ -6126,7 +6120,7 @@
       <c r="C293">
         <v>1183</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="str">
@@ -6134,7 +6128,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1184</v>
       </c>
@@ -6144,7 +6138,7 @@
       <c r="C294">
         <v>1184</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294">
         <v>0</v>
       </c>
       <c r="E294" t="str">
@@ -6162,15 +6156,15 @@
       <c r="C295">
         <v>1185</v>
       </c>
-      <c r="D295" s="1">
-        <v>1</v>
+      <c r="D295">
+        <v>0</v>
       </c>
       <c r="E295" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1186</v>
       </c>
@@ -6180,7 +6174,7 @@
       <c r="C296">
         <v>1186</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296">
         <v>0</v>
       </c>
       <c r="E296" t="str">
@@ -6188,7 +6182,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1187</v>
       </c>
@@ -6198,7 +6192,7 @@
       <c r="C297">
         <v>1187</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297">
         <v>0</v>
       </c>
       <c r="E297" t="str">
@@ -6206,7 +6200,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1188</v>
       </c>
@@ -6216,7 +6210,7 @@
       <c r="C298">
         <v>1188</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298">
         <v>1</v>
       </c>
       <c r="E298" t="str">
@@ -6224,7 +6218,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1189</v>
       </c>
@@ -6234,7 +6228,7 @@
       <c r="C299">
         <v>1189</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299">
         <v>0</v>
       </c>
       <c r="E299" t="str">
@@ -6242,7 +6236,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1190</v>
       </c>
@@ -6252,7 +6246,7 @@
       <c r="C300">
         <v>1190</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300">
         <v>0</v>
       </c>
       <c r="E300" t="str">
@@ -6260,7 +6254,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1191</v>
       </c>
@@ -6270,7 +6264,7 @@
       <c r="C301">
         <v>1191</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301">
         <v>0</v>
       </c>
       <c r="E301" t="str">
@@ -6288,15 +6282,15 @@
       <c r="C302">
         <v>1192</v>
       </c>
-      <c r="D302" s="1">
-        <v>1</v>
+      <c r="D302">
+        <v>0</v>
       </c>
       <c r="E302" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1193</v>
       </c>
@@ -6306,7 +6300,7 @@
       <c r="C303">
         <v>1193</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303">
         <v>0</v>
       </c>
       <c r="E303" t="str">
@@ -6314,7 +6308,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1194</v>
       </c>
@@ -6324,7 +6318,7 @@
       <c r="C304">
         <v>1194</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304">
         <v>0</v>
       </c>
       <c r="E304" t="str">
@@ -6332,7 +6326,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1195</v>
       </c>
@@ -6342,7 +6336,7 @@
       <c r="C305">
         <v>1195</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305">
         <v>0</v>
       </c>
       <c r="E305" t="str">
@@ -6350,7 +6344,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1196</v>
       </c>
@@ -6360,7 +6354,7 @@
       <c r="C306">
         <v>1196</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306">
         <v>1</v>
       </c>
       <c r="E306" t="str">
@@ -6368,7 +6362,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1197</v>
       </c>
@@ -6378,7 +6372,7 @@
       <c r="C307">
         <v>1197</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307">
         <v>1</v>
       </c>
       <c r="E307" t="str">
@@ -6386,7 +6380,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1198</v>
       </c>
@@ -6396,7 +6390,7 @@
       <c r="C308">
         <v>1198</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308">
         <v>0</v>
       </c>
       <c r="E308" t="str">
@@ -6404,7 +6398,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1199</v>
       </c>
@@ -6414,15 +6408,15 @@
       <c r="C309">
         <v>1199</v>
       </c>
-      <c r="D309" s="1">
-        <v>1</v>
+      <c r="D309">
+        <v>0</v>
       </c>
       <c r="E309" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1200</v>
       </c>
@@ -6432,7 +6426,7 @@
       <c r="C310">
         <v>1200</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310">
         <v>0</v>
       </c>
       <c r="E310" t="str">
@@ -6450,7 +6444,7 @@
       <c r="C311">
         <v>1201</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311">
         <v>1</v>
       </c>
       <c r="E311" t="str">
@@ -6458,7 +6452,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1202</v>
       </c>
@@ -6468,7 +6462,7 @@
       <c r="C312">
         <v>1202</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312">
         <v>0</v>
       </c>
       <c r="E312" t="str">
@@ -6486,15 +6480,15 @@
       <c r="C313">
         <v>1203</v>
       </c>
-      <c r="D313" s="1">
-        <v>1</v>
+      <c r="D313">
+        <v>0</v>
       </c>
       <c r="E313" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1204</v>
       </c>
@@ -6504,7 +6498,7 @@
       <c r="C314">
         <v>1204</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314">
         <v>0</v>
       </c>
       <c r="E314" t="str">
@@ -6522,15 +6516,15 @@
       <c r="C315">
         <v>1205</v>
       </c>
-      <c r="D315" s="1">
-        <v>0</v>
+      <c r="D315">
+        <v>1</v>
       </c>
       <c r="E315" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1206</v>
       </c>
@@ -6540,7 +6534,7 @@
       <c r="C316">
         <v>1206</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316">
         <v>1</v>
       </c>
       <c r="E316" t="str">
@@ -6558,15 +6552,15 @@
       <c r="C317">
         <v>1207</v>
       </c>
-      <c r="D317" s="1">
-        <v>0</v>
+      <c r="D317">
+        <v>1</v>
       </c>
       <c r="E317" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1208</v>
       </c>
@@ -6576,7 +6570,7 @@
       <c r="C318">
         <v>1208</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318">
         <v>0</v>
       </c>
       <c r="E318" t="str">
@@ -6584,7 +6578,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1209</v>
       </c>
@@ -6594,7 +6588,7 @@
       <c r="C319">
         <v>1209</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319">
         <v>0</v>
       </c>
       <c r="E319" t="str">
@@ -6602,7 +6596,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1210</v>
       </c>
@@ -6612,7 +6606,7 @@
       <c r="C320">
         <v>1210</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320">
         <v>0</v>
       </c>
       <c r="E320" t="str">
@@ -6620,7 +6614,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1211</v>
       </c>
@@ -6630,7 +6624,7 @@
       <c r="C321">
         <v>1211</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321">
         <v>0</v>
       </c>
       <c r="E321" t="str">
@@ -6638,7 +6632,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1212</v>
       </c>
@@ -6648,7 +6642,7 @@
       <c r="C322">
         <v>1212</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322">
         <v>0</v>
       </c>
       <c r="E322" t="str">
@@ -6666,15 +6660,15 @@
       <c r="C323">
         <v>1213</v>
       </c>
-      <c r="D323" s="1">
-        <v>1</v>
+      <c r="D323">
+        <v>0</v>
       </c>
       <c r="E323" t="str">
         <f t="shared" ref="E323:E386" si="5">IF(B323=D323,"YES","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1214</v>
       </c>
@@ -6684,7 +6678,7 @@
       <c r="C324">
         <v>1214</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324">
         <v>0</v>
       </c>
       <c r="E324" t="str">
@@ -6692,7 +6686,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1215</v>
       </c>
@@ -6702,7 +6696,7 @@
       <c r="C325">
         <v>1215</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325">
         <v>0</v>
       </c>
       <c r="E325" t="str">
@@ -6710,7 +6704,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1216</v>
       </c>
@@ -6720,7 +6714,7 @@
       <c r="C326">
         <v>1216</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326">
         <v>1</v>
       </c>
       <c r="E326" t="str">
@@ -6728,7 +6722,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1217</v>
       </c>
@@ -6738,7 +6732,7 @@
       <c r="C327">
         <v>1217</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327">
         <v>0</v>
       </c>
       <c r="E327" t="str">
@@ -6746,7 +6740,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1218</v>
       </c>
@@ -6756,7 +6750,7 @@
       <c r="C328">
         <v>1218</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328">
         <v>1</v>
       </c>
       <c r="E328" t="str">
@@ -6764,7 +6758,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1219</v>
       </c>
@@ -6774,7 +6768,7 @@
       <c r="C329">
         <v>1219</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329">
         <v>0</v>
       </c>
       <c r="E329" t="str">
@@ -6782,7 +6776,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1220</v>
       </c>
@@ -6792,7 +6786,7 @@
       <c r="C330">
         <v>1220</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330">
         <v>0</v>
       </c>
       <c r="E330" t="str">
@@ -6800,7 +6794,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1221</v>
       </c>
@@ -6810,7 +6804,7 @@
       <c r="C331">
         <v>1221</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331">
         <v>0</v>
       </c>
       <c r="E331" t="str">
@@ -6818,7 +6812,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1222</v>
       </c>
@@ -6828,7 +6822,7 @@
       <c r="C332">
         <v>1222</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332">
         <v>1</v>
       </c>
       <c r="E332" t="str">
@@ -6836,7 +6830,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1223</v>
       </c>
@@ -6846,7 +6840,7 @@
       <c r="C333">
         <v>1223</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333">
         <v>0</v>
       </c>
       <c r="E333" t="str">
@@ -6854,7 +6848,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1224</v>
       </c>
@@ -6864,7 +6858,7 @@
       <c r="C334">
         <v>1224</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334">
         <v>0</v>
       </c>
       <c r="E334" t="str">
@@ -6872,7 +6866,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1225</v>
       </c>
@@ -6882,7 +6876,7 @@
       <c r="C335">
         <v>1225</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335">
         <v>1</v>
       </c>
       <c r="E335" t="str">
@@ -6890,7 +6884,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1226</v>
       </c>
@@ -6900,7 +6894,7 @@
       <c r="C336">
         <v>1226</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336">
         <v>0</v>
       </c>
       <c r="E336" t="str">
@@ -6908,7 +6902,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1227</v>
       </c>
@@ -6918,7 +6912,7 @@
       <c r="C337">
         <v>1227</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337">
         <v>0</v>
       </c>
       <c r="E337" t="str">
@@ -6926,7 +6920,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1228</v>
       </c>
@@ -6936,7 +6930,7 @@
       <c r="C338">
         <v>1228</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338">
         <v>0</v>
       </c>
       <c r="E338" t="str">
@@ -6944,7 +6938,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1229</v>
       </c>
@@ -6954,7 +6948,7 @@
       <c r="C339">
         <v>1229</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339">
         <v>0</v>
       </c>
       <c r="E339" t="str">
@@ -6962,7 +6956,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1230</v>
       </c>
@@ -6972,7 +6966,7 @@
       <c r="C340">
         <v>1230</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340">
         <v>0</v>
       </c>
       <c r="E340" t="str">
@@ -6990,15 +6984,15 @@
       <c r="C341">
         <v>1231</v>
       </c>
-      <c r="D341" s="1">
-        <v>0</v>
+      <c r="D341">
+        <v>1</v>
       </c>
       <c r="E341" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1232</v>
       </c>
@@ -7008,7 +7002,7 @@
       <c r="C342">
         <v>1232</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342">
         <v>0</v>
       </c>
       <c r="E342" t="str">
@@ -7026,15 +7020,15 @@
       <c r="C343">
         <v>1233</v>
       </c>
-      <c r="D343" s="1">
-        <v>1</v>
+      <c r="D343">
+        <v>0</v>
       </c>
       <c r="E343" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1234</v>
       </c>
@@ -7044,7 +7038,7 @@
       <c r="C344">
         <v>1234</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344">
         <v>0</v>
       </c>
       <c r="E344" t="str">
@@ -7052,7 +7046,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1235</v>
       </c>
@@ -7062,7 +7056,7 @@
       <c r="C345">
         <v>1235</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345">
         <v>1</v>
       </c>
       <c r="E345" t="str">
@@ -7080,12 +7074,12 @@
       <c r="C346">
         <v>1236</v>
       </c>
-      <c r="D346" s="1">
-        <v>0</v>
+      <c r="D346">
+        <v>1</v>
       </c>
       <c r="E346" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7098,7 +7092,7 @@
       <c r="C347">
         <v>1237</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347">
         <v>1</v>
       </c>
       <c r="E347" t="str">
@@ -7106,7 +7100,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1238</v>
       </c>
@@ -7116,7 +7110,7 @@
       <c r="C348">
         <v>1238</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348">
         <v>0</v>
       </c>
       <c r="E348" t="str">
@@ -7124,7 +7118,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1239</v>
       </c>
@@ -7134,7 +7128,7 @@
       <c r="C349">
         <v>1239</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349">
         <v>1</v>
       </c>
       <c r="E349" t="str">
@@ -7142,7 +7136,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1240</v>
       </c>
@@ -7152,7 +7146,7 @@
       <c r="C350">
         <v>1240</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350">
         <v>0</v>
       </c>
       <c r="E350" t="str">
@@ -7160,7 +7154,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1241</v>
       </c>
@@ -7170,7 +7164,7 @@
       <c r="C351">
         <v>1241</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351">
         <v>1</v>
       </c>
       <c r="E351" t="str">
@@ -7178,7 +7172,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1242</v>
       </c>
@@ -7188,7 +7182,7 @@
       <c r="C352">
         <v>1242</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352">
         <v>1</v>
       </c>
       <c r="E352" t="str">
@@ -7196,7 +7190,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1243</v>
       </c>
@@ -7206,7 +7200,7 @@
       <c r="C353">
         <v>1243</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353">
         <v>0</v>
       </c>
       <c r="E353" t="str">
@@ -7214,7 +7208,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1244</v>
       </c>
@@ -7224,7 +7218,7 @@
       <c r="C354">
         <v>1244</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354">
         <v>0</v>
       </c>
       <c r="E354" t="str">
@@ -7232,7 +7226,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1245</v>
       </c>
@@ -7242,7 +7236,7 @@
       <c r="C355">
         <v>1245</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355">
         <v>0</v>
       </c>
       <c r="E355" t="str">
@@ -7250,7 +7244,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1246</v>
       </c>
@@ -7260,7 +7254,7 @@
       <c r="C356">
         <v>1246</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356">
         <v>1</v>
       </c>
       <c r="E356" t="str">
@@ -7268,7 +7262,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1247</v>
       </c>
@@ -7278,7 +7272,7 @@
       <c r="C357">
         <v>1247</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357">
         <v>0</v>
       </c>
       <c r="E357" t="str">
@@ -7286,7 +7280,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1248</v>
       </c>
@@ -7296,7 +7290,7 @@
       <c r="C358">
         <v>1248</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358">
         <v>1</v>
       </c>
       <c r="E358" t="str">
@@ -7304,7 +7298,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1249</v>
       </c>
@@ -7314,7 +7308,7 @@
       <c r="C359">
         <v>1249</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359">
         <v>0</v>
       </c>
       <c r="E359" t="str">
@@ -7332,15 +7326,15 @@
       <c r="C360">
         <v>1250</v>
       </c>
-      <c r="D360" s="1">
-        <v>1</v>
+      <c r="D360">
+        <v>0</v>
       </c>
       <c r="E360" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1251</v>
       </c>
@@ -7350,15 +7344,15 @@
       <c r="C361">
         <v>1251</v>
       </c>
-      <c r="D361" s="1">
-        <v>0</v>
+      <c r="D361">
+        <v>1</v>
       </c>
       <c r="E361" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1252</v>
       </c>
@@ -7368,7 +7362,7 @@
       <c r="C362">
         <v>1252</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362">
         <v>0</v>
       </c>
       <c r="E362" t="str">
@@ -7376,7 +7370,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1253</v>
       </c>
@@ -7386,7 +7380,7 @@
       <c r="C363">
         <v>1253</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363">
         <v>1</v>
       </c>
       <c r="E363" t="str">
@@ -7394,7 +7388,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1254</v>
       </c>
@@ -7404,7 +7398,7 @@
       <c r="C364">
         <v>1254</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364">
         <v>1</v>
       </c>
       <c r="E364" t="str">
@@ -7412,7 +7406,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1255</v>
       </c>
@@ -7422,7 +7416,7 @@
       <c r="C365">
         <v>1255</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365">
         <v>0</v>
       </c>
       <c r="E365" t="str">
@@ -7430,7 +7424,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1256</v>
       </c>
@@ -7440,7 +7434,7 @@
       <c r="C366">
         <v>1256</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366">
         <v>1</v>
       </c>
       <c r="E366" t="str">
@@ -7448,7 +7442,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1257</v>
       </c>
@@ -7458,7 +7452,7 @@
       <c r="C367">
         <v>1257</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367">
         <v>0</v>
       </c>
       <c r="E367" t="str">
@@ -7466,7 +7460,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1258</v>
       </c>
@@ -7476,7 +7470,7 @@
       <c r="C368">
         <v>1258</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368">
         <v>0</v>
       </c>
       <c r="E368" t="str">
@@ -7494,7 +7488,7 @@
       <c r="C369">
         <v>1259</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369">
         <v>0</v>
       </c>
       <c r="E369" t="str">
@@ -7502,7 +7496,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1260</v>
       </c>
@@ -7512,7 +7506,7 @@
       <c r="C370">
         <v>1260</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370">
         <v>1</v>
       </c>
       <c r="E370" t="str">
@@ -7530,15 +7524,15 @@
       <c r="C371">
         <v>1261</v>
       </c>
-      <c r="D371" s="1">
-        <v>1</v>
+      <c r="D371">
+        <v>0</v>
       </c>
       <c r="E371" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1262</v>
       </c>
@@ -7548,7 +7542,7 @@
       <c r="C372">
         <v>1262</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372">
         <v>0</v>
       </c>
       <c r="E372" t="str">
@@ -7556,7 +7550,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1263</v>
       </c>
@@ -7566,7 +7560,7 @@
       <c r="C373">
         <v>1263</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373">
         <v>1</v>
       </c>
       <c r="E373" t="str">
@@ -7584,15 +7578,15 @@
       <c r="C374">
         <v>1264</v>
       </c>
-      <c r="D374" s="1">
-        <v>1</v>
+      <c r="D374">
+        <v>0</v>
       </c>
       <c r="E374" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1265</v>
       </c>
@@ -7602,7 +7596,7 @@
       <c r="C375">
         <v>1265</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375">
         <v>0</v>
       </c>
       <c r="E375" t="str">
@@ -7610,7 +7604,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1266</v>
       </c>
@@ -7620,7 +7614,7 @@
       <c r="C376">
         <v>1266</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376">
         <v>1</v>
       </c>
       <c r="E376" t="str">
@@ -7628,7 +7622,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1267</v>
       </c>
@@ -7638,7 +7632,7 @@
       <c r="C377">
         <v>1267</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377">
         <v>1</v>
       </c>
       <c r="E377" t="str">
@@ -7656,7 +7650,7 @@
       <c r="C378">
         <v>1268</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378">
         <v>0</v>
       </c>
       <c r="E378" t="str">
@@ -7664,7 +7658,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1269</v>
       </c>
@@ -7674,7 +7668,7 @@
       <c r="C379">
         <v>1269</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379">
         <v>0</v>
       </c>
       <c r="E379" t="str">
@@ -7682,7 +7676,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1270</v>
       </c>
@@ -7692,7 +7686,7 @@
       <c r="C380">
         <v>1270</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380">
         <v>0</v>
       </c>
       <c r="E380" t="str">
@@ -7700,7 +7694,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1271</v>
       </c>
@@ -7710,7 +7704,7 @@
       <c r="C381">
         <v>1271</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381">
         <v>0</v>
       </c>
       <c r="E381" t="str">
@@ -7718,7 +7712,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1272</v>
       </c>
@@ -7728,7 +7722,7 @@
       <c r="C382">
         <v>1272</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382">
         <v>0</v>
       </c>
       <c r="E382" t="str">
@@ -7736,7 +7730,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1273</v>
       </c>
@@ -7746,7 +7740,7 @@
       <c r="C383">
         <v>1273</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383">
         <v>0</v>
       </c>
       <c r="E383" t="str">
@@ -7754,7 +7748,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1274</v>
       </c>
@@ -7764,7 +7758,7 @@
       <c r="C384">
         <v>1274</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384">
         <v>0</v>
       </c>
       <c r="E384" t="str">
@@ -7772,7 +7766,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1275</v>
       </c>
@@ -7782,15 +7776,15 @@
       <c r="C385">
         <v>1275</v>
       </c>
-      <c r="D385" s="1">
-        <v>0</v>
+      <c r="D385">
+        <v>1</v>
       </c>
       <c r="E385" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1276</v>
       </c>
@@ -7800,7 +7794,7 @@
       <c r="C386">
         <v>1276</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386">
         <v>0</v>
       </c>
       <c r="E386" t="str">
@@ -7808,7 +7802,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1277</v>
       </c>
@@ -7818,7 +7812,7 @@
       <c r="C387">
         <v>1277</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387">
         <v>1</v>
       </c>
       <c r="E387" t="str">
@@ -7826,7 +7820,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1278</v>
       </c>
@@ -7836,7 +7830,7 @@
       <c r="C388">
         <v>1278</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388">
         <v>0</v>
       </c>
       <c r="E388" t="str">
@@ -7844,7 +7838,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1279</v>
       </c>
@@ -7854,7 +7848,7 @@
       <c r="C389">
         <v>1279</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389">
         <v>0</v>
       </c>
       <c r="E389" t="str">
@@ -7862,7 +7856,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1280</v>
       </c>
@@ -7872,7 +7866,7 @@
       <c r="C390">
         <v>1280</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390">
         <v>0</v>
       </c>
       <c r="E390" t="str">
@@ -7880,7 +7874,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1281</v>
       </c>
@@ -7890,7 +7884,7 @@
       <c r="C391">
         <v>1281</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391">
         <v>0</v>
       </c>
       <c r="E391" t="str">
@@ -7898,7 +7892,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1282</v>
       </c>
@@ -7908,7 +7902,7 @@
       <c r="C392">
         <v>1282</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392">
         <v>0</v>
       </c>
       <c r="E392" t="str">
@@ -7916,7 +7910,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1283</v>
       </c>
@@ -7926,7 +7920,7 @@
       <c r="C393">
         <v>1283</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393">
         <v>1</v>
       </c>
       <c r="E393" t="str">
@@ -7944,15 +7938,15 @@
       <c r="C394">
         <v>1284</v>
       </c>
-      <c r="D394" s="1">
-        <v>0</v>
+      <c r="D394">
+        <v>1</v>
       </c>
       <c r="E394" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1285</v>
       </c>
@@ -7962,7 +7956,7 @@
       <c r="C395">
         <v>1285</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395">
         <v>0</v>
       </c>
       <c r="E395" t="str">
@@ -7980,15 +7974,15 @@
       <c r="C396">
         <v>1286</v>
       </c>
-      <c r="D396" s="1">
-        <v>1</v>
+      <c r="D396">
+        <v>0</v>
       </c>
       <c r="E396" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1287</v>
       </c>
@@ -7998,7 +7992,7 @@
       <c r="C397">
         <v>1287</v>
       </c>
-      <c r="D397" s="1">
+      <c r="D397">
         <v>1</v>
       </c>
       <c r="E397" t="str">
@@ -8006,7 +8000,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1288</v>
       </c>
@@ -8016,7 +8010,7 @@
       <c r="C398">
         <v>1288</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398">
         <v>0</v>
       </c>
       <c r="E398" t="str">
@@ -8024,7 +8018,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1289</v>
       </c>
@@ -8034,7 +8028,7 @@
       <c r="C399">
         <v>1289</v>
       </c>
-      <c r="D399" s="1">
+      <c r="D399">
         <v>1</v>
       </c>
       <c r="E399" t="str">
@@ -8042,7 +8036,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1290</v>
       </c>
@@ -8052,7 +8046,7 @@
       <c r="C400">
         <v>1290</v>
       </c>
-      <c r="D400" s="1">
+      <c r="D400">
         <v>0</v>
       </c>
       <c r="E400" t="str">
@@ -8060,7 +8054,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1291</v>
       </c>
@@ -8070,7 +8064,7 @@
       <c r="C401">
         <v>1291</v>
       </c>
-      <c r="D401" s="1">
+      <c r="D401">
         <v>0</v>
       </c>
       <c r="E401" t="str">
@@ -8078,7 +8072,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1292</v>
       </c>
@@ -8088,7 +8082,7 @@
       <c r="C402">
         <v>1292</v>
       </c>
-      <c r="D402" s="1">
+      <c r="D402">
         <v>1</v>
       </c>
       <c r="E402" t="str">
@@ -8096,7 +8090,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1293</v>
       </c>
@@ -8106,7 +8100,7 @@
       <c r="C403">
         <v>1293</v>
       </c>
-      <c r="D403" s="1">
+      <c r="D403">
         <v>0</v>
       </c>
       <c r="E403" t="str">
@@ -8114,7 +8108,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1294</v>
       </c>
@@ -8124,7 +8118,7 @@
       <c r="C404">
         <v>1294</v>
       </c>
-      <c r="D404" s="1">
+      <c r="D404">
         <v>1</v>
       </c>
       <c r="E404" t="str">
@@ -8132,7 +8126,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1295</v>
       </c>
@@ -8142,7 +8136,7 @@
       <c r="C405">
         <v>1295</v>
       </c>
-      <c r="D405" s="1">
+      <c r="D405">
         <v>0</v>
       </c>
       <c r="E405" t="str">
@@ -8160,12 +8154,12 @@
       <c r="C406">
         <v>1296</v>
       </c>
-      <c r="D406" s="1">
-        <v>1</v>
+      <c r="D406">
+        <v>0</v>
       </c>
       <c r="E406" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8178,15 +8172,15 @@
       <c r="C407">
         <v>1297</v>
       </c>
-      <c r="D407" s="1">
-        <v>1</v>
+      <c r="D407">
+        <v>0</v>
       </c>
       <c r="E407" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1298</v>
       </c>
@@ -8196,7 +8190,7 @@
       <c r="C408">
         <v>1298</v>
       </c>
-      <c r="D408" s="1">
+      <c r="D408">
         <v>0</v>
       </c>
       <c r="E408" t="str">
@@ -8204,7 +8198,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1299</v>
       </c>
@@ -8214,7 +8208,7 @@
       <c r="C409">
         <v>1299</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409">
         <v>0</v>
       </c>
       <c r="E409" t="str">
@@ -8222,7 +8216,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1300</v>
       </c>
@@ -8232,7 +8226,7 @@
       <c r="C410">
         <v>1300</v>
       </c>
-      <c r="D410" s="1">
+      <c r="D410">
         <v>1</v>
       </c>
       <c r="E410" t="str">
@@ -8250,12 +8244,12 @@
       <c r="C411">
         <v>1301</v>
       </c>
-      <c r="D411" s="1">
-        <v>0</v>
+      <c r="D411">
+        <v>1</v>
       </c>
       <c r="E411" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -8268,15 +8262,15 @@
       <c r="C412">
         <v>1302</v>
       </c>
-      <c r="D412" s="1">
-        <v>0</v>
+      <c r="D412">
+        <v>1</v>
       </c>
       <c r="E412" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1303</v>
       </c>
@@ -8286,7 +8280,7 @@
       <c r="C413">
         <v>1303</v>
       </c>
-      <c r="D413" s="1">
+      <c r="D413">
         <v>1</v>
       </c>
       <c r="E413" t="str">
@@ -8304,15 +8298,15 @@
       <c r="C414">
         <v>1304</v>
       </c>
-      <c r="D414" s="1">
-        <v>0</v>
+      <c r="D414">
+        <v>1</v>
       </c>
       <c r="E414" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1305</v>
       </c>
@@ -8322,7 +8316,7 @@
       <c r="C415">
         <v>1305</v>
       </c>
-      <c r="D415" s="1">
+      <c r="D415">
         <v>0</v>
       </c>
       <c r="E415" t="str">
@@ -8330,7 +8324,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1306</v>
       </c>
@@ -8340,7 +8334,7 @@
       <c r="C416">
         <v>1306</v>
       </c>
-      <c r="D416" s="1">
+      <c r="D416">
         <v>1</v>
       </c>
       <c r="E416" t="str">
@@ -8348,7 +8342,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1307</v>
       </c>
@@ -8358,7 +8352,7 @@
       <c r="C417">
         <v>1307</v>
       </c>
-      <c r="D417" s="1">
+      <c r="D417">
         <v>0</v>
       </c>
       <c r="E417" t="str">
@@ -8366,7 +8360,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1308</v>
       </c>
@@ -8376,7 +8370,7 @@
       <c r="C418">
         <v>1308</v>
       </c>
-      <c r="D418" s="1">
+      <c r="D418">
         <v>0</v>
       </c>
       <c r="E418" t="str">
@@ -8384,7 +8378,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1309</v>
       </c>
@@ -8394,7 +8388,7 @@
       <c r="C419">
         <v>1309</v>
       </c>
-      <c r="D419" s="1">
+      <c r="D419">
         <v>1</v>
       </c>
       <c r="E419" t="str">
@@ -8403,13 +8397,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E419">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>